--- a/biology/Zoologie/Batrachoseps_wrighti/Batrachoseps_wrighti.xlsx
+++ b/biology/Zoologie/Batrachoseps_wrighti/Batrachoseps_wrighti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps wrighti est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps wrighti est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Ouest de l'Oregon aux États-Unis. Elle se rencontre dans les comtés de Clackamas, de Lane, de Linn, de Marion et de Multnomah. Elle est présente entre six cents et mille trois cents mètres d'altitude sur les pentes ouest de la chaîne des Cascades, voire à partir de quinze mètres notamment dans les gorges du Columbia[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Ouest de l'Oregon aux États-Unis. Elle se rencontre dans les comtés de Clackamas, de Lane, de Linn, de Marion et de Multnomah. Elle est présente entre six cents et mille trois cents mètres d'altitude sur les pentes ouest de la chaîne des Cascades, voire à partir de quinze mètres notamment dans les gorges du Columbia.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps wrighti mesure de 85 à 120 mm. Les mâles sont matures à 33 mm, les femelles à 35 mm. Elles sont en moyenne 12 % plus grandes que les mâles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps wrighti mesure de 85 à 120 mm. Les mâles sont matures à 33 mm, les femelles à 35 mm. Elles sont en moyenne 12 % plus grandes que les mâles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Albert Hazen Wright et de Margaret R. Wright[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Albert Hazen Wright et de Margaret R. Wright.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bishop, 1937 : A remarkable new salamander from Oregon. Herpetologica, vol. 1, p. 93-95.</t>
         </is>
